--- a/biology/Médecine/1887_en_santé_et_médecine/1887_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1887_en_santé_et_médecine/1887_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1887_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1887_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1887 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1887_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1887_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>11 janvier : le médecin Jacques-Joseph Grancher défend la vaccination contre la rage de Louis Pasteur devant l'Académie de médecine[1].
-3 mars : l'éducatrice Anne Sullivan commence à enseigner le langage à Helen Keller, une enfant aveugle et sourde, à Tuscumbia en Alabama[2].
-4 juin : décret relatif à la création de l'Institut Pasteur de Paris, inauguré le 14 novembre 1888[3].
-Septembre : l'ophtalmologiste allemand Adolph Eugene Fick  soumet un article intitulé « Eine Contactbrille » (Des lunettes de contact) au journal Archiv für Augenheilkunde (publié en mars 1888) dans lequel il décrit ses travaux sur les lentilles de contact[4].
-David Bruce (1855-1931) établit la relation causale entre un micro-organisme et la fièvre de Malte, en isolant la bactérie qui sera nommée plus tard Brucella melitensis en son honneur[5].
-Le physiologiste britannique Augustus Desiré Waller réalise le premier électrocardiogramme humain[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>11 janvier : le médecin Jacques-Joseph Grancher défend la vaccination contre la rage de Louis Pasteur devant l'Académie de médecine.
+3 mars : l'éducatrice Anne Sullivan commence à enseigner le langage à Helen Keller, une enfant aveugle et sourde, à Tuscumbia en Alabama.
+4 juin : décret relatif à la création de l'Institut Pasteur de Paris, inauguré le 14 novembre 1888.
+Septembre : l'ophtalmologiste allemand Adolph Eugene Fick  soumet un article intitulé « Eine Contactbrille » (Des lunettes de contact) au journal Archiv für Augenheilkunde (publié en mars 1888) dans lequel il décrit ses travaux sur les lentilles de contact.
+David Bruce (1855-1931) établit la relation causale entre un micro-organisme et la fièvre de Malte, en isolant la bactérie qui sera nommée plus tard Brucella melitensis en son honneur.
+Le physiologiste britannique Augustus Desiré Waller réalise le premier électrocardiogramme humain.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1887_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1887_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>3 avril : Georges Brohée, chirurgien et radiologue belge (mort en 1957).
 7 avril : Einar Meulengracht (mort en 1976), médecin danois,</t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1887_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1887_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,12 +593,14 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>9 février : Jules Béclard (né en 1817), physiologiste français.
 27 février : Alexandre Borodine (né en 1833), compositeur, chimiste et médecin russe.
 11 juillet : Đorđe Natošević (né en 1821), médecin et un pédagogue serbe.
-19 août : Félix Giraud-Teulon (né en 1816), médecin français[7].</t>
+19 août : Félix Giraud-Teulon (né en 1816), médecin français.</t>
         </is>
       </c>
     </row>
